--- a/PACK_Gen/Files/Examples/All_Boards/ClockChecker/VE8_ClkChecker.xlsx
+++ b/PACK_Gen/Files/Examples/All_Boards/ClockChecker/VE8_ClkChecker.xlsx
@@ -607,7 +607,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="23">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>16</v>
@@ -912,7 +912,7 @@
       </c>
       <c r="E25" s="9">
         <f>E17/(E20+1)*E21/E18</f>
-        <v>7.1111111111111107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -928,7 +928,7 @@
       </c>
       <c r="E26" s="11">
         <f>E18/(E22+1)/E17*(E23+1)</f>
-        <v>5.625</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1005,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B44" s="9">
         <f>B36/(B39+1)*(B40+1)/B37</f>
-        <v>8.1999999999999993</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B45" s="13">
         <f>B37/(B41+1)/B36*B42</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="23">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B57" s="9">
         <f>B49/(B52+1)*(B53+1)/B50</f>
-        <v>2.6666666666666665</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B58" s="11">
         <f>B50/(B54+1)/B49*B55</f>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
